--- a/alimenti.xlsx
+++ b/alimenti.xlsx
@@ -658,7 +658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -1228,6 +1228,25 @@
       </c>
       <c r="E29" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>proteine in polvere</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>366</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
